--- a/data_spp.xlsx
+++ b/data_spp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zackisaefulbahri/PERKULIAHAN/Mata Kuliah/Pemograman dasar/Pertemuan 15/sistem_pembayaran_SPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC316008-57D4-3141-93FD-972598520874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055B276-73C5-A543-96FA-6349CF874878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17160" yWindow="1020" windowWidth="16880" windowHeight="21080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
